--- a/Testes/UC11_Test_Scenario.xlsx
+++ b/Testes/UC11_Test_Scenario.xlsx
@@ -3,14 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23716"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68D69770-AA8D-4D74-9774-5662401558AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D64184-542B-4569-82EA-00E376F59B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Mover ficheiro" sheetId="2" r:id="rId2"/>
-    <sheet name="Cancelar encomenda" sheetId="3" r:id="rId3"/>
+    <sheet name="Registo Freelancer" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Project Name</t>
   </si>
@@ -69,10 +67,10 @@
     <t>TC_Reg_FreeL_001</t>
   </si>
   <si>
-    <t>TC_RegistarFreelancer_002</t>
-  </si>
-  <si>
-    <t>TC_RegistarFreelancer_003</t>
+    <t>TC_Reg_FreeL_002</t>
+  </si>
+  <si>
+    <t>TC_Reg_FreeL_003</t>
   </si>
   <si>
     <t>Test Case Description</t>
@@ -93,7 +91,7 @@
     <t>Test Case Steps</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Selecionar Tarefa
+    <t xml:space="preserve">1. Registar Freelancer
 </t>
   </si>
   <si>
@@ -111,8 +109,9 @@
 2.Candidatura a Freelancer validada</t>
   </si>
   <si>
-    <t>1.Administrador Registado na Plataforma
-2.Candidatura a Freelancer não validada</t>
+    <t xml:space="preserve">1.Administrador Registado na Plataforma
+2.Candidatura a Freelancer não validada
+</t>
   </si>
   <si>
     <t>Post Conditions</t>
@@ -158,98 +157,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>TS_001</t>
-  </si>
-  <si>
-    <t>Mover ficheiro de uma pasta para outra</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_001</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_002</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_003</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_004</t>
-  </si>
-  <si>
-    <t>Mover o ficheiro enquanto este está aberto</t>
-  </si>
-  <si>
-    <t>Não ter privilégios de escrita na pasta destino</t>
-  </si>
-  <si>
-    <t>A capacidade de espaço livre no destino é excedida</t>
-  </si>
-  <si>
-    <t>Já existe um ficheiro com esse nome na pasta destino</t>
-  </si>
-  <si>
-    <t>1. Editar ficheiro
-2. Mover ficheiro</t>
-  </si>
-  <si>
-    <t>1. Mover ficheiro</t>
-  </si>
-  <si>
-    <t>Ficheiro em edição</t>
-  </si>
-  <si>
-    <t>Retirar permissões de escrita na pasta destino</t>
-  </si>
-  <si>
-    <t>Definir quota máxima para X MB</t>
-  </si>
-  <si>
-    <t>Copiar ficheiro para c:\test</t>
-  </si>
-  <si>
-    <t>Ficheiro: c:\test.txt
-Pasta destino: c:\dest</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "O ficheiro está aberto"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Não tem permissões para executar a operação"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Não existe espaço suficiente"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Já existe um ficheiro com esse nome"</t>
-  </si>
-  <si>
-    <t>Popup Message: "O ficheiro está aberto"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Não tem permissões para executar a operação"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Não existe espaço suficiente"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Já existe um ficheiro com esse nome"</t>
-  </si>
-  <si>
-    <t>Falha</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que já foi cancelada</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que existe e não foi ainda cncelada</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que não existe</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que não é reembolsável</t>
   </si>
 </sst>
 </file>
@@ -723,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95"/>
@@ -855,7 +762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="63">
+    <row r="14" spans="1:4" ht="78.75">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -928,431 +835,6 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95"/>
-  <cols>
-    <col min="1" max="1" width="23.75"/>
-    <col min="2" max="2" width="24" style="1"/>
-    <col min="3" max="5" width="24"/>
-    <col min="6" max="1025" width="10.875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.100000000000001">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33.950000000000003">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.100000000000001">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="51">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33.950000000000003">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="33.950000000000003">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="33.950000000000003">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="51">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="51">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.100000000000001">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95"/>
-  <cols>
-    <col min="1" max="1" width="23.75"/>
-    <col min="2" max="2" width="24" style="1"/>
-    <col min="3" max="5" width="24"/>
-    <col min="6" max="1025" width="10.875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.100000000000001">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
